--- a/grid.xlsx
+++ b/grid.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>row1</t>
   </si>
@@ -131,14 +131,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -453,26 +453,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -483,8 +483,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -501,8 +501,8 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -514,9 +514,16 @@
       <c r="D4">
         <v>208</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E4">
+        <f>D4/G6</f>
+        <v>4.4039805208553888</v>
+      </c>
+      <c r="G4">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -538,25 +545,32 @@
         <f>B5+C5+D5</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6">
         <f>E3/E5</f>
         <v>25.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="G6">
+        <f>G4/G5</f>
+        <v>47.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -579,8 +593,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B11">
@@ -608,9 +622,12 @@
         <f>B11+C11+D11+E11+F11+G11+H11</f>
         <v>2560</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="K11">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12">
@@ -634,9 +651,16 @@
       <c r="H12">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="I12">
+        <f>H12/K13</f>
+        <v>1.482108829134025</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13">
@@ -674,25 +698,29 @@
         <f>B13+C13+D13+E13+F13+G13+H13</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f>K11/K12</f>
+        <v>47.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I14">
         <f>I11/I13</f>
         <v>25.6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -711,8 +739,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19">
@@ -734,9 +762,12 @@
         <f>B19+C19+D19+E19+F19</f>
         <v>2560</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="I19">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B20">
@@ -754,9 +785,16 @@
       <c r="F20">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="G20">
+        <f>F20/I21</f>
+        <v>1.2703789964005929</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B21">
@@ -786,25 +824,29 @@
         <f>B21+C21+D21+E21+F21</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f>I19/I20</f>
+        <v>47.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G22">
         <f>G19/G21</f>
         <v>25.6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,8 +865,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B27">
@@ -846,9 +888,12 @@
         <f>B27+C27+D27+E27+F27</f>
         <v>2560</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="I27">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B28">
@@ -866,9 +911,16 @@
       <c r="F28">
         <v>146</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="G28">
+        <f>F28/I29</f>
+        <v>3.0912555579081094</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B29">
@@ -898,29 +950,33 @@
         <f>B29+C29+D29+E29+F29</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f>I27/I28</f>
+        <v>47.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G30">
         <f>G27/G29</f>
         <v>25.6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>302</v>
       </c>
@@ -929,7 +985,7 @@
         <v>25.208681135225376</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>146</v>
       </c>
@@ -938,7 +994,7 @@
         <v>12.186978297161936</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>302</v>
       </c>
@@ -947,7 +1003,7 @@
         <v>25.208681135225376</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>146</v>
       </c>
@@ -956,7 +1012,7 @@
         <v>12.186978297161936</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>302</v>
       </c>
@@ -965,24 +1021,97 @@
         <v>25.208681135225376</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A34+A35+A36+A37+A38</f>
         <v>1198</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>A40/A41</f>
         <v>11.98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>387.43799999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>645.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>232.46899999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>516.59400000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>258.29700000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f>SUM(C45:C54)</f>
+        <v>2696.5480000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f>4723-C55</f>
+        <v>2026.4519999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f>C57/4723*100</f>
+        <v>42.906034300232896</v>
       </c>
     </row>
   </sheetData>

--- a/grid.xlsx
+++ b/grid.xlsx
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,52 +1066,85 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>232.46899999999999</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>516.59400000000005</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>258.29700000000003</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56">
         <f>SUM(C45:C54)</f>
         <v>2696.5480000000002</v>
       </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <f>4723-C55</f>
+      <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f>F57/F56*100</f>
+        <v>57.093965699767104</v>
+      </c>
+      <c r="F57">
+        <f>C56</f>
+        <v>2696.5480000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f>F58/F56*100</f>
+        <v>42.906034300232896</v>
+      </c>
+      <c r="F58">
+        <f>F56-F57</f>
         <v>2026.4519999999998</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58">
-        <f>C57/4723*100</f>
-        <v>42.906034300232896</v>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f>SUM(E57:E58)</f>
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <f>SUM(F57:F59)</f>
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>36</v>
+      </c>
+      <c r="F62">
+        <f>F56*E62/100</f>
+        <v>1700.28</v>
       </c>
     </row>
   </sheetData>
